--- a/data/output/FV2404_FV2310/UTILMD/55139.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55139.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10363" uniqueCount="722">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10384" uniqueCount="722">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -2395,6 +2395,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U463" totalsRowShown="0">
+  <autoFilter ref="A1:U463"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2684,7 +2714,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U463"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -24656,5 +24689,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55139.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55139.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12646" uniqueCount="1175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12450" uniqueCount="1175">
   <si>
     <t>#</t>
   </si>
@@ -9973,46 +9973,44 @@
       <c r="V113" s="9"/>
     </row>
     <row r="114" spans="1:22">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="5" t="s">
         <v>829</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="2" t="s">
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="K114" s="2" t="s">
+      <c r="K114" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="L114" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="M114" s="2" t="s">
+      <c r="L114" s="7"/>
+      <c r="M114" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N114" s="2" t="s">
+      <c r="N114" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="O114" s="2"/>
-      <c r="P114" s="2"/>
-      <c r="Q114" s="2"/>
-      <c r="R114" s="2"/>
-      <c r="S114" s="2"/>
-      <c r="T114" s="2"/>
-      <c r="U114" s="2" t="s">
+      <c r="O114" s="5"/>
+      <c r="P114" s="5"/>
+      <c r="Q114" s="5"/>
+      <c r="R114" s="5"/>
+      <c r="S114" s="5"/>
+      <c r="T114" s="5"/>
+      <c r="U114" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="V114" s="2" t="s">
+      <c r="V114" s="5" t="s">
         <v>555</v>
       </c>
     </row>
@@ -10283,44 +10281,42 @@
       </c>
     </row>
     <row r="120" spans="1:22">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="5" t="s">
         <v>835</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-      <c r="J120" s="2" t="s">
+      <c r="C120" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="K120" s="2"/>
-      <c r="L120" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="M120" s="2" t="s">
+      <c r="K120" s="5"/>
+      <c r="L120" s="7"/>
+      <c r="M120" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N120" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O120" s="2"/>
-      <c r="P120" s="2"/>
-      <c r="Q120" s="2"/>
-      <c r="R120" s="2"/>
-      <c r="S120" s="2"/>
-      <c r="T120" s="2"/>
-      <c r="U120" s="2" t="s">
+      <c r="N120" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O120" s="5"/>
+      <c r="P120" s="5"/>
+      <c r="Q120" s="5"/>
+      <c r="R120" s="5"/>
+      <c r="S120" s="5"/>
+      <c r="T120" s="5"/>
+      <c r="U120" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="V120" s="2"/>
+      <c r="V120" s="5"/>
     </row>
     <row r="121" spans="1:22">
       <c r="A121" s="2" t="s">
@@ -10512,9 +10508,7 @@
         <v>478</v>
       </c>
       <c r="K124" s="2"/>
-      <c r="L124" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L124" s="7"/>
       <c r="M124" s="2" t="s">
         <v>50</v>
       </c>
@@ -10541,46 +10535,44 @@
       <c r="V124" s="2"/>
     </row>
     <row r="125" spans="1:22">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-      <c r="J125" s="2" t="s">
+      <c r="C125" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="K125" s="2" t="s">
+      <c r="K125" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="L125" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="M125" s="2" t="s">
+      <c r="L125" s="7"/>
+      <c r="M125" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N125" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O125" s="2"/>
-      <c r="P125" s="2"/>
-      <c r="Q125" s="2"/>
-      <c r="R125" s="2"/>
-      <c r="S125" s="2"/>
-      <c r="T125" s="2"/>
-      <c r="U125" s="2" t="s">
+      <c r="N125" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O125" s="5"/>
+      <c r="P125" s="5"/>
+      <c r="Q125" s="5"/>
+      <c r="R125" s="5"/>
+      <c r="S125" s="5"/>
+      <c r="T125" s="5"/>
+      <c r="U125" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="V125" s="2" t="s">
+      <c r="V125" s="5" t="s">
         <v>551</v>
       </c>
     </row>
@@ -11094,9 +11086,7 @@
         <v>478</v>
       </c>
       <c r="K135" s="2"/>
-      <c r="L135" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L135" s="7"/>
       <c r="M135" s="2" t="s">
         <v>47</v>
       </c>
@@ -11251,46 +11241,44 @@
       <c r="V138" s="9"/>
     </row>
     <row r="139" spans="1:22">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="5" t="s">
         <v>853</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2" t="s">
+      <c r="C139" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="K139" s="2" t="s">
+      <c r="K139" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="L139" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="M139" s="2" t="s">
+      <c r="L139" s="7"/>
+      <c r="M139" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N139" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O139" s="2"/>
-      <c r="P139" s="2"/>
-      <c r="Q139" s="2"/>
-      <c r="R139" s="2"/>
-      <c r="S139" s="2"/>
-      <c r="T139" s="2"/>
-      <c r="U139" s="2" t="s">
+      <c r="N139" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O139" s="5"/>
+      <c r="P139" s="5"/>
+      <c r="Q139" s="5"/>
+      <c r="R139" s="5"/>
+      <c r="S139" s="5"/>
+      <c r="T139" s="5"/>
+      <c r="U139" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="V139" s="2" t="s">
+      <c r="V139" s="5" t="s">
         <v>551</v>
       </c>
     </row>
@@ -11561,46 +11549,44 @@
       </c>
     </row>
     <row r="145" spans="1:22">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="5" t="s">
         <v>859</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
-      <c r="J145" s="2" t="s">
+      <c r="C145" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="K145" s="2" t="s">
+      <c r="K145" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="L145" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="M145" s="2" t="s">
+      <c r="L145" s="7"/>
+      <c r="M145" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="N145" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O145" s="2"/>
-      <c r="P145" s="2"/>
-      <c r="Q145" s="2"/>
-      <c r="R145" s="2"/>
-      <c r="S145" s="2"/>
-      <c r="T145" s="2"/>
-      <c r="U145" s="2" t="s">
+      <c r="N145" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O145" s="5"/>
+      <c r="P145" s="5"/>
+      <c r="Q145" s="5"/>
+      <c r="R145" s="5"/>
+      <c r="S145" s="5"/>
+      <c r="T145" s="5"/>
+      <c r="U145" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="V145" s="2" t="s">
+      <c r="V145" s="5" t="s">
         <v>551</v>
       </c>
     </row>
@@ -11840,9 +11826,7 @@
         <v>478</v>
       </c>
       <c r="K150" s="2"/>
-      <c r="L150" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L150" s="7"/>
       <c r="M150" s="2" t="s">
         <v>53</v>
       </c>
@@ -11896,9 +11880,7 @@
         <v>478</v>
       </c>
       <c r="K151" s="2"/>
-      <c r="L151" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L151" s="7"/>
       <c r="M151" s="2" t="s">
         <v>53</v>
       </c>
@@ -11952,9 +11934,7 @@
         <v>478</v>
       </c>
       <c r="K152" s="2"/>
-      <c r="L152" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L152" s="7"/>
       <c r="M152" s="2" t="s">
         <v>53</v>
       </c>
@@ -12116,9 +12096,7 @@
         <v>501</v>
       </c>
       <c r="K155" s="2"/>
-      <c r="L155" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L155" s="7"/>
       <c r="M155" s="2" t="s">
         <v>54</v>
       </c>
@@ -12174,9 +12152,7 @@
       <c r="K156" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="L156" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L156" s="7"/>
       <c r="M156" s="2" t="s">
         <v>54</v>
       </c>
@@ -12205,44 +12181,42 @@
       </c>
     </row>
     <row r="157" spans="1:22">
-      <c r="A157" s="2" t="s">
+      <c r="A157" s="5" t="s">
         <v>871</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
-      <c r="I157" s="2"/>
-      <c r="J157" s="2" t="s">
+      <c r="C157" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="K157" s="2"/>
-      <c r="L157" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="M157" s="2" t="s">
+      <c r="K157" s="5"/>
+      <c r="L157" s="7"/>
+      <c r="M157" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N157" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O157" s="2"/>
-      <c r="P157" s="2"/>
-      <c r="Q157" s="2"/>
-      <c r="R157" s="2"/>
-      <c r="S157" s="2"/>
-      <c r="T157" s="2"/>
-      <c r="U157" s="2" t="s">
+      <c r="N157" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O157" s="5"/>
+      <c r="P157" s="5"/>
+      <c r="Q157" s="5"/>
+      <c r="R157" s="5"/>
+      <c r="S157" s="5"/>
+      <c r="T157" s="5"/>
+      <c r="U157" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="V157" s="2"/>
+      <c r="V157" s="5"/>
     </row>
     <row r="158" spans="1:22">
       <c r="A158" s="2" t="s">
@@ -12480,9 +12454,7 @@
         <v>478</v>
       </c>
       <c r="K162" s="2"/>
-      <c r="L162" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L162" s="7"/>
       <c r="M162" s="2" t="s">
         <v>55</v>
       </c>
@@ -12536,9 +12508,7 @@
         <v>478</v>
       </c>
       <c r="K163" s="2"/>
-      <c r="L163" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L163" s="7"/>
       <c r="M163" s="2" t="s">
         <v>55</v>
       </c>
@@ -12565,44 +12535,42 @@
       <c r="V163" s="2"/>
     </row>
     <row r="164" spans="1:22">
-      <c r="A164" s="2" t="s">
+      <c r="A164" s="5" t="s">
         <v>877</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
-      <c r="G164" s="2"/>
-      <c r="H164" s="2"/>
-      <c r="I164" s="2"/>
-      <c r="J164" s="2" t="s">
+      <c r="C164" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="K164" s="2"/>
-      <c r="L164" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="M164" s="2" t="s">
+      <c r="K164" s="5"/>
+      <c r="L164" s="7"/>
+      <c r="M164" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N164" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O164" s="2"/>
-      <c r="P164" s="2"/>
-      <c r="Q164" s="2"/>
-      <c r="R164" s="2"/>
-      <c r="S164" s="2"/>
-      <c r="T164" s="2"/>
-      <c r="U164" s="2" t="s">
+      <c r="N164" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O164" s="5"/>
+      <c r="P164" s="5"/>
+      <c r="Q164" s="5"/>
+      <c r="R164" s="5"/>
+      <c r="S164" s="5"/>
+      <c r="T164" s="5"/>
+      <c r="U164" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="V164" s="2"/>
+      <c r="V164" s="5"/>
     </row>
     <row r="165" spans="1:22">
       <c r="A165" s="2" t="s">
@@ -12736,9 +12704,7 @@
         <v>481</v>
       </c>
       <c r="K167" s="2"/>
-      <c r="L167" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L167" s="7"/>
       <c r="M167" s="2" t="s">
         <v>56</v>
       </c>
@@ -12900,9 +12866,7 @@
         <v>481</v>
       </c>
       <c r="K170" s="2"/>
-      <c r="L170" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L170" s="7"/>
       <c r="M170" s="2" t="s">
         <v>56</v>
       </c>
@@ -12956,9 +12920,7 @@
         <v>481</v>
       </c>
       <c r="K171" s="2"/>
-      <c r="L171" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L171" s="7"/>
       <c r="M171" s="2" t="s">
         <v>56</v>
       </c>
@@ -12985,46 +12947,44 @@
       <c r="V171" s="2"/>
     </row>
     <row r="172" spans="1:22">
-      <c r="A172" s="2" t="s">
+      <c r="A172" s="5" t="s">
         <v>885</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D172" s="2"/>
-      <c r="E172" s="2"/>
-      <c r="F172" s="2"/>
-      <c r="G172" s="2"/>
-      <c r="H172" s="2"/>
-      <c r="I172" s="2"/>
-      <c r="J172" s="2" t="s">
+      <c r="C172" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="5"/>
+      <c r="J172" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="K172" s="2" t="s">
+      <c r="K172" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="L172" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="M172" s="2" t="s">
+      <c r="L172" s="7"/>
+      <c r="M172" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N172" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O172" s="2"/>
-      <c r="P172" s="2"/>
-      <c r="Q172" s="2"/>
-      <c r="R172" s="2"/>
-      <c r="S172" s="2"/>
-      <c r="T172" s="2"/>
-      <c r="U172" s="2" t="s">
+      <c r="N172" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O172" s="5"/>
+      <c r="P172" s="5"/>
+      <c r="Q172" s="5"/>
+      <c r="R172" s="5"/>
+      <c r="S172" s="5"/>
+      <c r="T172" s="5"/>
+      <c r="U172" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="V172" s="2" t="s">
+      <c r="V172" s="5" t="s">
         <v>560</v>
       </c>
     </row>
@@ -13322,9 +13282,7 @@
         <v>478</v>
       </c>
       <c r="K178" s="2"/>
-      <c r="L178" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L178" s="7"/>
       <c r="M178" s="2" t="s">
         <v>58</v>
       </c>
@@ -13542,9 +13500,7 @@
       <c r="K182" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="L182" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L182" s="7"/>
       <c r="M182" s="2" t="s">
         <v>59</v>
       </c>
@@ -13762,9 +13718,7 @@
         <v>478</v>
       </c>
       <c r="K186" s="2"/>
-      <c r="L186" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L186" s="7"/>
       <c r="M186" s="2" t="s">
         <v>60</v>
       </c>
@@ -13980,9 +13934,7 @@
         <v>478</v>
       </c>
       <c r="K190" s="2"/>
-      <c r="L190" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L190" s="7"/>
       <c r="M190" s="2" t="s">
         <v>61</v>
       </c>
@@ -14202,9 +14154,7 @@
         <v>478</v>
       </c>
       <c r="K194" s="2"/>
-      <c r="L194" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L194" s="7"/>
       <c r="M194" s="2" t="s">
         <v>62</v>
       </c>
@@ -14231,46 +14181,44 @@
       <c r="V194" s="2"/>
     </row>
     <row r="195" spans="1:22">
-      <c r="A195" s="2" t="s">
+      <c r="A195" s="5" t="s">
         <v>908</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D195" s="2"/>
-      <c r="E195" s="2"/>
-      <c r="F195" s="2"/>
-      <c r="G195" s="2"/>
-      <c r="H195" s="2"/>
-      <c r="I195" s="2"/>
-      <c r="J195" s="2" t="s">
+      <c r="C195" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5"/>
+      <c r="I195" s="5"/>
+      <c r="J195" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="K195" s="2" t="s">
+      <c r="K195" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="L195" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="M195" s="2" t="s">
+      <c r="L195" s="7"/>
+      <c r="M195" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N195" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O195" s="2"/>
-      <c r="P195" s="2"/>
-      <c r="Q195" s="2"/>
-      <c r="R195" s="2"/>
-      <c r="S195" s="2"/>
-      <c r="T195" s="2"/>
-      <c r="U195" s="2" t="s">
+      <c r="N195" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O195" s="5"/>
+      <c r="P195" s="5"/>
+      <c r="Q195" s="5"/>
+      <c r="R195" s="5"/>
+      <c r="S195" s="5"/>
+      <c r="T195" s="5"/>
+      <c r="U195" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="V195" s="2" t="s">
+      <c r="V195" s="5" t="s">
         <v>563</v>
       </c>
     </row>
@@ -14510,9 +14458,7 @@
         <v>478</v>
       </c>
       <c r="K200" s="2"/>
-      <c r="L200" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L200" s="7"/>
       <c r="M200" s="2" t="s">
         <v>63</v>
       </c>
@@ -14539,46 +14485,44 @@
       <c r="V200" s="2"/>
     </row>
     <row r="201" spans="1:22">
-      <c r="A201" s="2" t="s">
+      <c r="A201" s="5" t="s">
         <v>914</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D201" s="2"/>
-      <c r="E201" s="2"/>
-      <c r="F201" s="2"/>
-      <c r="G201" s="2"/>
-      <c r="H201" s="2"/>
-      <c r="I201" s="2"/>
-      <c r="J201" s="2" t="s">
+      <c r="C201" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="5"/>
+      <c r="H201" s="5"/>
+      <c r="I201" s="5"/>
+      <c r="J201" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="K201" s="2" t="s">
+      <c r="K201" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="L201" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="M201" s="2" t="s">
+      <c r="L201" s="7"/>
+      <c r="M201" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N201" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O201" s="2"/>
-      <c r="P201" s="2"/>
-      <c r="Q201" s="2"/>
-      <c r="R201" s="2"/>
-      <c r="S201" s="2"/>
-      <c r="T201" s="2"/>
-      <c r="U201" s="2" t="s">
+      <c r="N201" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O201" s="5"/>
+      <c r="P201" s="5"/>
+      <c r="Q201" s="5"/>
+      <c r="R201" s="5"/>
+      <c r="S201" s="5"/>
+      <c r="T201" s="5"/>
+      <c r="U201" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="V201" s="2" t="s">
+      <c r="V201" s="5" t="s">
         <v>563</v>
       </c>
     </row>
@@ -14772,9 +14716,7 @@
         <v>478</v>
       </c>
       <c r="K205" s="2"/>
-      <c r="L205" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L205" s="7"/>
       <c r="M205" s="2" t="s">
         <v>64</v>
       </c>
@@ -14828,9 +14770,7 @@
         <v>478</v>
       </c>
       <c r="K206" s="2"/>
-      <c r="L206" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L206" s="7"/>
       <c r="M206" s="2" t="s">
         <v>64</v>
       </c>
@@ -14857,46 +14797,44 @@
       <c r="V206" s="2"/>
     </row>
     <row r="207" spans="1:22">
-      <c r="A207" s="2" t="s">
+      <c r="A207" s="5" t="s">
         <v>920</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B207" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C207" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D207" s="2"/>
-      <c r="E207" s="2"/>
-      <c r="F207" s="2"/>
-      <c r="G207" s="2"/>
-      <c r="H207" s="2"/>
-      <c r="I207" s="2"/>
-      <c r="J207" s="2" t="s">
+      <c r="D207" s="5"/>
+      <c r="E207" s="5"/>
+      <c r="F207" s="5"/>
+      <c r="G207" s="5"/>
+      <c r="H207" s="5"/>
+      <c r="I207" s="5"/>
+      <c r="J207" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="K207" s="2" t="s">
+      <c r="K207" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="L207" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="M207" s="2" t="s">
+      <c r="L207" s="7"/>
+      <c r="M207" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N207" s="2" t="s">
+      <c r="N207" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="O207" s="2"/>
-      <c r="P207" s="2"/>
-      <c r="Q207" s="2"/>
-      <c r="R207" s="2"/>
-      <c r="S207" s="2"/>
-      <c r="T207" s="2"/>
-      <c r="U207" s="2" t="s">
+      <c r="O207" s="5"/>
+      <c r="P207" s="5"/>
+      <c r="Q207" s="5"/>
+      <c r="R207" s="5"/>
+      <c r="S207" s="5"/>
+      <c r="T207" s="5"/>
+      <c r="U207" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="V207" s="2" t="s">
+      <c r="V207" s="5" t="s">
         <v>564</v>
       </c>
     </row>
@@ -15163,44 +15101,42 @@
       <c r="V212" s="2"/>
     </row>
     <row r="213" spans="1:22">
-      <c r="A213" s="2" t="s">
+      <c r="A213" s="5" t="s">
         <v>926</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B213" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D213" s="2"/>
-      <c r="E213" s="2"/>
-      <c r="F213" s="2"/>
-      <c r="G213" s="2"/>
-      <c r="H213" s="2"/>
-      <c r="I213" s="2"/>
-      <c r="J213" s="2" t="s">
+      <c r="C213" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
+      <c r="I213" s="5"/>
+      <c r="J213" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="K213" s="2"/>
-      <c r="L213" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="M213" s="2" t="s">
+      <c r="K213" s="5"/>
+      <c r="L213" s="7"/>
+      <c r="M213" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="N213" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O213" s="2"/>
-      <c r="P213" s="2"/>
-      <c r="Q213" s="2"/>
-      <c r="R213" s="2"/>
-      <c r="S213" s="2"/>
-      <c r="T213" s="2"/>
-      <c r="U213" s="2" t="s">
+      <c r="N213" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O213" s="5"/>
+      <c r="P213" s="5"/>
+      <c r="Q213" s="5"/>
+      <c r="R213" s="5"/>
+      <c r="S213" s="5"/>
+      <c r="T213" s="5"/>
+      <c r="U213" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="V213" s="2"/>
+      <c r="V213" s="5"/>
     </row>
     <row r="214" spans="1:22">
       <c r="A214" s="2" t="s">
@@ -15438,9 +15374,7 @@
         <v>481</v>
       </c>
       <c r="K218" s="2"/>
-      <c r="L218" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L218" s="7"/>
       <c r="M218" s="2" t="s">
         <v>68</v>
       </c>
@@ -15494,9 +15428,7 @@
         <v>481</v>
       </c>
       <c r="K219" s="2"/>
-      <c r="L219" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L219" s="7"/>
       <c r="M219" s="2" t="s">
         <v>68</v>
       </c>
@@ -15550,9 +15482,7 @@
         <v>481</v>
       </c>
       <c r="K220" s="2"/>
-      <c r="L220" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L220" s="7"/>
       <c r="M220" s="2" t="s">
         <v>68</v>
       </c>
@@ -15606,9 +15536,7 @@
         <v>481</v>
       </c>
       <c r="K221" s="2"/>
-      <c r="L221" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L221" s="7"/>
       <c r="M221" s="2" t="s">
         <v>68</v>
       </c>
@@ -15766,9 +15694,7 @@
         <v>478</v>
       </c>
       <c r="K224" s="2"/>
-      <c r="L224" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L224" s="7"/>
       <c r="M224" s="2" t="s">
         <v>69</v>
       </c>
@@ -15930,9 +15856,7 @@
         <v>478</v>
       </c>
       <c r="K227" s="2"/>
-      <c r="L227" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L227" s="7"/>
       <c r="M227" s="2" t="s">
         <v>70</v>
       </c>
@@ -15986,9 +15910,7 @@
         <v>478</v>
       </c>
       <c r="K228" s="2"/>
-      <c r="L228" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L228" s="7"/>
       <c r="M228" s="2" t="s">
         <v>70</v>
       </c>
@@ -16150,9 +16072,7 @@
         <v>478</v>
       </c>
       <c r="K231" s="2"/>
-      <c r="L231" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L231" s="7"/>
       <c r="M231" s="2" t="s">
         <v>71</v>
       </c>
@@ -16206,9 +16126,7 @@
         <v>478</v>
       </c>
       <c r="K232" s="2"/>
-      <c r="L232" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L232" s="7"/>
       <c r="M232" s="2" t="s">
         <v>71</v>
       </c>
@@ -16235,46 +16153,44 @@
       <c r="V232" s="2"/>
     </row>
     <row r="233" spans="1:22">
-      <c r="A233" s="2" t="s">
+      <c r="A233" s="5" t="s">
         <v>946</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B233" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="C233" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D233" s="2"/>
-      <c r="E233" s="2"/>
-      <c r="F233" s="2"/>
-      <c r="G233" s="2"/>
-      <c r="H233" s="2"/>
-      <c r="I233" s="2"/>
-      <c r="J233" s="2" t="s">
+      <c r="D233" s="5"/>
+      <c r="E233" s="5"/>
+      <c r="F233" s="5"/>
+      <c r="G233" s="5"/>
+      <c r="H233" s="5"/>
+      <c r="I233" s="5"/>
+      <c r="J233" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="K233" s="2" t="s">
+      <c r="K233" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="L233" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="M233" s="2" t="s">
+      <c r="L233" s="7"/>
+      <c r="M233" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="N233" s="2" t="s">
+      <c r="N233" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="O233" s="2"/>
-      <c r="P233" s="2"/>
-      <c r="Q233" s="2"/>
-      <c r="R233" s="2"/>
-      <c r="S233" s="2"/>
-      <c r="T233" s="2"/>
-      <c r="U233" s="2" t="s">
+      <c r="O233" s="5"/>
+      <c r="P233" s="5"/>
+      <c r="Q233" s="5"/>
+      <c r="R233" s="5"/>
+      <c r="S233" s="5"/>
+      <c r="T233" s="5"/>
+      <c r="U233" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="V233" s="2" t="s">
+      <c r="V233" s="5" t="s">
         <v>567</v>
       </c>
     </row>
@@ -16607,46 +16523,44 @@
       <c r="V239" s="2"/>
     </row>
     <row r="240" spans="1:22">
-      <c r="A240" s="2" t="s">
+      <c r="A240" s="5" t="s">
         <v>953</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B240" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C240" s="2" t="s">
+      <c r="C240" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D240" s="2"/>
-      <c r="E240" s="2"/>
-      <c r="F240" s="2"/>
-      <c r="G240" s="2"/>
-      <c r="H240" s="2"/>
-      <c r="I240" s="2"/>
-      <c r="J240" s="2" t="s">
+      <c r="D240" s="5"/>
+      <c r="E240" s="5"/>
+      <c r="F240" s="5"/>
+      <c r="G240" s="5"/>
+      <c r="H240" s="5"/>
+      <c r="I240" s="5"/>
+      <c r="J240" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="K240" s="2" t="s">
+      <c r="K240" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="L240" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="M240" s="2" t="s">
+      <c r="L240" s="7"/>
+      <c r="M240" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="N240" s="2" t="s">
+      <c r="N240" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="O240" s="2"/>
-      <c r="P240" s="2"/>
-      <c r="Q240" s="2"/>
-      <c r="R240" s="2"/>
-      <c r="S240" s="2"/>
-      <c r="T240" s="2"/>
-      <c r="U240" s="2" t="s">
+      <c r="O240" s="5"/>
+      <c r="P240" s="5"/>
+      <c r="Q240" s="5"/>
+      <c r="R240" s="5"/>
+      <c r="S240" s="5"/>
+      <c r="T240" s="5"/>
+      <c r="U240" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="V240" s="2" t="s">
+      <c r="V240" s="5" t="s">
         <v>569</v>
       </c>
     </row>
@@ -16913,44 +16827,42 @@
       <c r="V245" s="2"/>
     </row>
     <row r="246" spans="1:22">
-      <c r="A246" s="2" t="s">
+      <c r="A246" s="5" t="s">
         <v>959</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B246" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C246" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D246" s="2"/>
-      <c r="E246" s="2"/>
-      <c r="F246" s="2"/>
-      <c r="G246" s="2"/>
-      <c r="H246" s="2"/>
-      <c r="I246" s="2"/>
-      <c r="J246" s="2" t="s">
+      <c r="C246" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D246" s="5"/>
+      <c r="E246" s="5"/>
+      <c r="F246" s="5"/>
+      <c r="G246" s="5"/>
+      <c r="H246" s="5"/>
+      <c r="I246" s="5"/>
+      <c r="J246" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="K246" s="2"/>
-      <c r="L246" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="M246" s="2" t="s">
+      <c r="K246" s="5"/>
+      <c r="L246" s="7"/>
+      <c r="M246" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N246" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O246" s="2"/>
-      <c r="P246" s="2"/>
-      <c r="Q246" s="2"/>
-      <c r="R246" s="2"/>
-      <c r="S246" s="2"/>
-      <c r="T246" s="2"/>
-      <c r="U246" s="2" t="s">
+      <c r="N246" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O246" s="5"/>
+      <c r="P246" s="5"/>
+      <c r="Q246" s="5"/>
+      <c r="R246" s="5"/>
+      <c r="S246" s="5"/>
+      <c r="T246" s="5"/>
+      <c r="U246" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="V246" s="2"/>
+      <c r="V246" s="5"/>
     </row>
     <row r="247" spans="1:22">
       <c r="A247" s="2" t="s">
@@ -17188,9 +17100,7 @@
         <v>478</v>
       </c>
       <c r="K251" s="2"/>
-      <c r="L251" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L251" s="7"/>
       <c r="M251" s="2" t="s">
         <v>76</v>
       </c>
@@ -17244,9 +17154,7 @@
         <v>478</v>
       </c>
       <c r="K252" s="2"/>
-      <c r="L252" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L252" s="7"/>
       <c r="M252" s="2" t="s">
         <v>76</v>
       </c>
@@ -17300,9 +17208,7 @@
         <v>478</v>
       </c>
       <c r="K253" s="2"/>
-      <c r="L253" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L253" s="7"/>
       <c r="M253" s="2" t="s">
         <v>76</v>
       </c>
@@ -17356,9 +17262,7 @@
         <v>478</v>
       </c>
       <c r="K254" s="2"/>
-      <c r="L254" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L254" s="7"/>
       <c r="M254" s="2" t="s">
         <v>76</v>
       </c>
@@ -17412,9 +17316,7 @@
         <v>478</v>
       </c>
       <c r="K255" s="2"/>
-      <c r="L255" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L255" s="7"/>
       <c r="M255" s="2" t="s">
         <v>76</v>
       </c>
@@ -17468,9 +17370,7 @@
         <v>478</v>
       </c>
       <c r="K256" s="2"/>
-      <c r="L256" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L256" s="7"/>
       <c r="M256" s="2" t="s">
         <v>76</v>
       </c>
@@ -17524,9 +17424,7 @@
         <v>478</v>
       </c>
       <c r="K257" s="2"/>
-      <c r="L257" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L257" s="7"/>
       <c r="M257" s="2" t="s">
         <v>76</v>
       </c>
@@ -17669,46 +17567,44 @@
       </c>
     </row>
     <row r="260" spans="1:22">
-      <c r="A260" s="2" t="s">
+      <c r="A260" s="5" t="s">
         <v>973</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="B260" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C260" s="2" t="s">
+      <c r="C260" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D260" s="2"/>
-      <c r="E260" s="2"/>
-      <c r="F260" s="2"/>
-      <c r="G260" s="2"/>
-      <c r="H260" s="2"/>
-      <c r="I260" s="2"/>
-      <c r="J260" s="2" t="s">
+      <c r="D260" s="5"/>
+      <c r="E260" s="5"/>
+      <c r="F260" s="5"/>
+      <c r="G260" s="5"/>
+      <c r="H260" s="5"/>
+      <c r="I260" s="5"/>
+      <c r="J260" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="K260" s="2" t="s">
+      <c r="K260" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="L260" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="M260" s="2" t="s">
+      <c r="L260" s="7"/>
+      <c r="M260" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N260" s="2" t="s">
+      <c r="N260" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="O260" s="2"/>
-      <c r="P260" s="2"/>
-      <c r="Q260" s="2"/>
-      <c r="R260" s="2"/>
-      <c r="S260" s="2"/>
-      <c r="T260" s="2"/>
-      <c r="U260" s="2" t="s">
+      <c r="O260" s="5"/>
+      <c r="P260" s="5"/>
+      <c r="Q260" s="5"/>
+      <c r="R260" s="5"/>
+      <c r="S260" s="5"/>
+      <c r="T260" s="5"/>
+      <c r="U260" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="V260" s="2" t="s">
+      <c r="V260" s="5" t="s">
         <v>569</v>
       </c>
     </row>
@@ -17975,44 +17871,42 @@
       <c r="V265" s="2"/>
     </row>
     <row r="266" spans="1:22">
-      <c r="A266" s="2" t="s">
+      <c r="A266" s="5" t="s">
         <v>979</v>
       </c>
-      <c r="B266" s="2" t="s">
+      <c r="B266" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C266" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D266" s="2"/>
-      <c r="E266" s="2"/>
-      <c r="F266" s="2"/>
-      <c r="G266" s="2"/>
-      <c r="H266" s="2"/>
-      <c r="I266" s="2"/>
-      <c r="J266" s="2" t="s">
+      <c r="C266" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D266" s="5"/>
+      <c r="E266" s="5"/>
+      <c r="F266" s="5"/>
+      <c r="G266" s="5"/>
+      <c r="H266" s="5"/>
+      <c r="I266" s="5"/>
+      <c r="J266" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="K266" s="2"/>
-      <c r="L266" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="M266" s="2" t="s">
+      <c r="K266" s="5"/>
+      <c r="L266" s="7"/>
+      <c r="M266" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="N266" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O266" s="2"/>
-      <c r="P266" s="2"/>
-      <c r="Q266" s="2"/>
-      <c r="R266" s="2"/>
-      <c r="S266" s="2"/>
-      <c r="T266" s="2"/>
-      <c r="U266" s="2" t="s">
+      <c r="N266" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O266" s="5"/>
+      <c r="P266" s="5"/>
+      <c r="Q266" s="5"/>
+      <c r="R266" s="5"/>
+      <c r="S266" s="5"/>
+      <c r="T266" s="5"/>
+      <c r="U266" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="V266" s="2"/>
+      <c r="V266" s="5"/>
     </row>
     <row r="267" spans="1:22">
       <c r="A267" s="2" t="s">
@@ -18204,9 +18098,7 @@
         <v>478</v>
       </c>
       <c r="K270" s="2"/>
-      <c r="L270" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L270" s="7"/>
       <c r="M270" s="2" t="s">
         <v>78</v>
       </c>
@@ -18233,46 +18125,44 @@
       <c r="V270" s="2"/>
     </row>
     <row r="271" spans="1:22">
-      <c r="A271" s="2" t="s">
+      <c r="A271" s="5" t="s">
         <v>984</v>
       </c>
-      <c r="B271" s="2" t="s">
+      <c r="B271" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C271" s="2" t="s">
+      <c r="C271" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D271" s="2"/>
-      <c r="E271" s="2"/>
-      <c r="F271" s="2"/>
-      <c r="G271" s="2"/>
-      <c r="H271" s="2"/>
-      <c r="I271" s="2"/>
-      <c r="J271" s="2" t="s">
+      <c r="D271" s="5"/>
+      <c r="E271" s="5"/>
+      <c r="F271" s="5"/>
+      <c r="G271" s="5"/>
+      <c r="H271" s="5"/>
+      <c r="I271" s="5"/>
+      <c r="J271" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="K271" s="2" t="s">
+      <c r="K271" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="L271" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="M271" s="2" t="s">
+      <c r="L271" s="7"/>
+      <c r="M271" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="N271" s="2" t="s">
+      <c r="N271" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="O271" s="2"/>
-      <c r="P271" s="2"/>
-      <c r="Q271" s="2"/>
-      <c r="R271" s="2"/>
-      <c r="S271" s="2"/>
-      <c r="T271" s="2"/>
-      <c r="U271" s="2" t="s">
+      <c r="O271" s="5"/>
+      <c r="P271" s="5"/>
+      <c r="Q271" s="5"/>
+      <c r="R271" s="5"/>
+      <c r="S271" s="5"/>
+      <c r="T271" s="5"/>
+      <c r="U271" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="V271" s="2" t="s">
+      <c r="V271" s="5" t="s">
         <v>569</v>
       </c>
     </row>
@@ -18400,9 +18290,7 @@
         <v>477</v>
       </c>
       <c r="K274" s="2"/>
-      <c r="L274" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L274" s="7"/>
       <c r="M274" s="2" t="s">
         <v>79</v>
       </c>
@@ -18951,46 +18839,44 @@
       </c>
     </row>
     <row r="285" spans="1:22">
-      <c r="A285" s="2" t="s">
+      <c r="A285" s="5" t="s">
         <v>998</v>
       </c>
-      <c r="B285" s="2" t="s">
+      <c r="B285" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C285" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D285" s="2"/>
-      <c r="E285" s="2"/>
-      <c r="F285" s="2"/>
-      <c r="G285" s="2"/>
-      <c r="H285" s="2"/>
-      <c r="I285" s="2"/>
-      <c r="J285" s="2" t="s">
+      <c r="C285" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D285" s="5"/>
+      <c r="E285" s="5"/>
+      <c r="F285" s="5"/>
+      <c r="G285" s="5"/>
+      <c r="H285" s="5"/>
+      <c r="I285" s="5"/>
+      <c r="J285" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="K285" s="2" t="s">
+      <c r="K285" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="L285" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="M285" s="2" t="s">
+      <c r="L285" s="7"/>
+      <c r="M285" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N285" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O285" s="2"/>
-      <c r="P285" s="2"/>
-      <c r="Q285" s="2"/>
-      <c r="R285" s="2"/>
-      <c r="S285" s="2"/>
-      <c r="T285" s="2"/>
-      <c r="U285" s="2" t="s">
+      <c r="N285" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O285" s="5"/>
+      <c r="P285" s="5"/>
+      <c r="Q285" s="5"/>
+      <c r="R285" s="5"/>
+      <c r="S285" s="5"/>
+      <c r="T285" s="5"/>
+      <c r="U285" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="V285" s="2" t="s">
+      <c r="V285" s="5" t="s">
         <v>574</v>
       </c>
     </row>
@@ -19230,9 +19116,7 @@
         <v>478</v>
       </c>
       <c r="K290" s="2"/>
-      <c r="L290" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L290" s="7"/>
       <c r="M290" s="2" t="s">
         <v>63</v>
       </c>
@@ -19259,46 +19143,44 @@
       <c r="V290" s="2"/>
     </row>
     <row r="291" spans="1:22">
-      <c r="A291" s="2" t="s">
+      <c r="A291" s="5" t="s">
         <v>1004</v>
       </c>
-      <c r="B291" s="2" t="s">
+      <c r="B291" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C291" s="2" t="s">
+      <c r="C291" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D291" s="2"/>
-      <c r="E291" s="2"/>
-      <c r="F291" s="2"/>
-      <c r="G291" s="2"/>
-      <c r="H291" s="2"/>
-      <c r="I291" s="2"/>
-      <c r="J291" s="2" t="s">
+      <c r="D291" s="5"/>
+      <c r="E291" s="5"/>
+      <c r="F291" s="5"/>
+      <c r="G291" s="5"/>
+      <c r="H291" s="5"/>
+      <c r="I291" s="5"/>
+      <c r="J291" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="K291" s="2" t="s">
+      <c r="K291" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="L291" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="M291" s="2" t="s">
+      <c r="L291" s="7"/>
+      <c r="M291" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="N291" s="2" t="s">
+      <c r="N291" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="O291" s="2"/>
-      <c r="P291" s="2"/>
-      <c r="Q291" s="2"/>
-      <c r="R291" s="2"/>
-      <c r="S291" s="2"/>
-      <c r="T291" s="2"/>
-      <c r="U291" s="2" t="s">
+      <c r="O291" s="5"/>
+      <c r="P291" s="5"/>
+      <c r="Q291" s="5"/>
+      <c r="R291" s="5"/>
+      <c r="S291" s="5"/>
+      <c r="T291" s="5"/>
+      <c r="U291" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="V291" s="2" t="s">
+      <c r="V291" s="5" t="s">
         <v>575</v>
       </c>
     </row>
@@ -20577,46 +20459,44 @@
       <c r="V316" s="2"/>
     </row>
     <row r="317" spans="1:22">
-      <c r="A317" s="2" t="s">
+      <c r="A317" s="5" t="s">
         <v>1028</v>
       </c>
-      <c r="B317" s="2" t="s">
+      <c r="B317" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C317" s="2" t="s">
+      <c r="C317" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D317" s="2"/>
-      <c r="E317" s="2"/>
-      <c r="F317" s="2"/>
-      <c r="G317" s="2"/>
-      <c r="H317" s="2"/>
-      <c r="I317" s="2"/>
-      <c r="J317" s="2" t="s">
+      <c r="D317" s="5"/>
+      <c r="E317" s="5"/>
+      <c r="F317" s="5"/>
+      <c r="G317" s="5"/>
+      <c r="H317" s="5"/>
+      <c r="I317" s="5"/>
+      <c r="J317" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="K317" s="2" t="s">
+      <c r="K317" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="L317" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="M317" s="2" t="s">
+      <c r="L317" s="7"/>
+      <c r="M317" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="N317" s="2" t="s">
+      <c r="N317" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="O317" s="2"/>
-      <c r="P317" s="2"/>
-      <c r="Q317" s="2"/>
-      <c r="R317" s="2"/>
-      <c r="S317" s="2"/>
-      <c r="T317" s="2"/>
-      <c r="U317" s="2" t="s">
+      <c r="O317" s="5"/>
+      <c r="P317" s="5"/>
+      <c r="Q317" s="5"/>
+      <c r="R317" s="5"/>
+      <c r="S317" s="5"/>
+      <c r="T317" s="5"/>
+      <c r="U317" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="V317" s="2" t="s">
+      <c r="V317" s="5" t="s">
         <v>581</v>
       </c>
     </row>
@@ -20837,46 +20717,44 @@
       <c r="V321" s="2"/>
     </row>
     <row r="322" spans="1:22">
-      <c r="A322" s="2" t="s">
+      <c r="A322" s="5" t="s">
         <v>1033</v>
       </c>
-      <c r="B322" s="2" t="s">
+      <c r="B322" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C322" s="2" t="s">
+      <c r="C322" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D322" s="2"/>
-      <c r="E322" s="2"/>
-      <c r="F322" s="2"/>
-      <c r="G322" s="2"/>
-      <c r="H322" s="2"/>
-      <c r="I322" s="2"/>
-      <c r="J322" s="2" t="s">
+      <c r="D322" s="5"/>
+      <c r="E322" s="5"/>
+      <c r="F322" s="5"/>
+      <c r="G322" s="5"/>
+      <c r="H322" s="5"/>
+      <c r="I322" s="5"/>
+      <c r="J322" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="K322" s="2" t="s">
+      <c r="K322" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="L322" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="M322" s="2" t="s">
+      <c r="L322" s="7"/>
+      <c r="M322" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="N322" s="2" t="s">
+      <c r="N322" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="O322" s="2"/>
-      <c r="P322" s="2"/>
-      <c r="Q322" s="2"/>
-      <c r="R322" s="2"/>
-      <c r="S322" s="2"/>
-      <c r="T322" s="2"/>
-      <c r="U322" s="2" t="s">
+      <c r="O322" s="5"/>
+      <c r="P322" s="5"/>
+      <c r="Q322" s="5"/>
+      <c r="R322" s="5"/>
+      <c r="S322" s="5"/>
+      <c r="T322" s="5"/>
+      <c r="U322" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="V322" s="2" t="s">
+      <c r="V322" s="5" t="s">
         <v>582</v>
       </c>
     </row>
@@ -21097,44 +20975,42 @@
       <c r="V326" s="2"/>
     </row>
     <row r="327" spans="1:22">
-      <c r="A327" s="2" t="s">
+      <c r="A327" s="5" t="s">
         <v>1038</v>
       </c>
-      <c r="B327" s="2" t="s">
+      <c r="B327" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C327" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D327" s="2"/>
-      <c r="E327" s="2"/>
-      <c r="F327" s="2"/>
-      <c r="G327" s="2"/>
-      <c r="H327" s="2"/>
-      <c r="I327" s="2"/>
-      <c r="J327" s="2" t="s">
+      <c r="C327" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D327" s="5"/>
+      <c r="E327" s="5"/>
+      <c r="F327" s="5"/>
+      <c r="G327" s="5"/>
+      <c r="H327" s="5"/>
+      <c r="I327" s="5"/>
+      <c r="J327" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="K327" s="2"/>
-      <c r="L327" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="M327" s="2" t="s">
+      <c r="K327" s="5"/>
+      <c r="L327" s="7"/>
+      <c r="M327" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="N327" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O327" s="2"/>
-      <c r="P327" s="2"/>
-      <c r="Q327" s="2"/>
-      <c r="R327" s="2"/>
-      <c r="S327" s="2"/>
-      <c r="T327" s="2"/>
-      <c r="U327" s="2" t="s">
+      <c r="N327" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O327" s="5"/>
+      <c r="P327" s="5"/>
+      <c r="Q327" s="5"/>
+      <c r="R327" s="5"/>
+      <c r="S327" s="5"/>
+      <c r="T327" s="5"/>
+      <c r="U327" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="V327" s="2"/>
+      <c r="V327" s="5"/>
     </row>
     <row r="328" spans="1:22">
       <c r="A328" s="2" t="s">
@@ -21268,9 +21144,7 @@
         <v>478</v>
       </c>
       <c r="K330" s="2"/>
-      <c r="L330" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L330" s="7"/>
       <c r="M330" s="2" t="s">
         <v>91</v>
       </c>
@@ -21324,9 +21198,7 @@
         <v>478</v>
       </c>
       <c r="K331" s="2"/>
-      <c r="L331" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L331" s="7"/>
       <c r="M331" s="2" t="s">
         <v>91</v>
       </c>
@@ -21488,9 +21360,7 @@
         <v>481</v>
       </c>
       <c r="K334" s="2"/>
-      <c r="L334" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L334" s="7"/>
       <c r="M334" s="2" t="s">
         <v>68</v>
       </c>
@@ -21544,9 +21414,7 @@
         <v>481</v>
       </c>
       <c r="K335" s="2"/>
-      <c r="L335" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L335" s="7"/>
       <c r="M335" s="2" t="s">
         <v>68</v>
       </c>
@@ -21600,9 +21468,7 @@
         <v>481</v>
       </c>
       <c r="K336" s="2"/>
-      <c r="L336" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L336" s="7"/>
       <c r="M336" s="2" t="s">
         <v>68</v>
       </c>
@@ -21764,9 +21630,7 @@
         <v>478</v>
       </c>
       <c r="K339" s="2"/>
-      <c r="L339" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L339" s="7"/>
       <c r="M339" s="2" t="s">
         <v>70</v>
       </c>
@@ -21820,9 +21684,7 @@
         <v>478</v>
       </c>
       <c r="K340" s="2"/>
-      <c r="L340" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L340" s="7"/>
       <c r="M340" s="2" t="s">
         <v>70</v>
       </c>
@@ -21984,9 +21846,7 @@
         <v>478</v>
       </c>
       <c r="K343" s="2"/>
-      <c r="L343" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L343" s="7"/>
       <c r="M343" s="2" t="s">
         <v>71</v>
       </c>
@@ -22040,9 +21900,7 @@
         <v>478</v>
       </c>
       <c r="K344" s="2"/>
-      <c r="L344" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L344" s="7"/>
       <c r="M344" s="2" t="s">
         <v>71</v>
       </c>
@@ -22204,9 +22062,7 @@
         <v>478</v>
       </c>
       <c r="K347" s="2"/>
-      <c r="L347" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L347" s="7"/>
       <c r="M347" s="2" t="s">
         <v>92</v>
       </c>
@@ -22260,9 +22116,7 @@
         <v>478</v>
       </c>
       <c r="K348" s="2"/>
-      <c r="L348" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L348" s="7"/>
       <c r="M348" s="2" t="s">
         <v>92</v>
       </c>
@@ -22316,9 +22170,7 @@
         <v>478</v>
       </c>
       <c r="K349" s="2"/>
-      <c r="L349" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L349" s="7"/>
       <c r="M349" s="2" t="s">
         <v>92</v>
       </c>
@@ -22372,9 +22224,7 @@
         <v>478</v>
       </c>
       <c r="K350" s="2"/>
-      <c r="L350" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L350" s="7"/>
       <c r="M350" s="2" t="s">
         <v>92</v>
       </c>
@@ -22536,9 +22386,7 @@
         <v>478</v>
       </c>
       <c r="K353" s="2"/>
-      <c r="L353" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L353" s="7"/>
       <c r="M353" s="2" t="s">
         <v>93</v>
       </c>
@@ -22592,9 +22440,7 @@
         <v>478</v>
       </c>
       <c r="K354" s="2"/>
-      <c r="L354" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L354" s="7"/>
       <c r="M354" s="2" t="s">
         <v>93</v>
       </c>
@@ -22648,9 +22494,7 @@
         <v>478</v>
       </c>
       <c r="K355" s="2"/>
-      <c r="L355" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L355" s="7"/>
       <c r="M355" s="2" t="s">
         <v>93</v>
       </c>
@@ -22812,9 +22656,7 @@
         <v>478</v>
       </c>
       <c r="K358" s="2"/>
-      <c r="L358" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L358" s="7"/>
       <c r="M358" s="2" t="s">
         <v>94</v>
       </c>
@@ -22976,9 +22818,7 @@
         <v>478</v>
       </c>
       <c r="K361" s="2"/>
-      <c r="L361" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L361" s="7"/>
       <c r="M361" s="2" t="s">
         <v>95</v>
       </c>
@@ -23140,9 +22980,7 @@
         <v>478</v>
       </c>
       <c r="K364" s="2"/>
-      <c r="L364" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L364" s="7"/>
       <c r="M364" s="2" t="s">
         <v>96</v>
       </c>
@@ -23196,9 +23034,7 @@
         <v>478</v>
       </c>
       <c r="K365" s="2"/>
-      <c r="L365" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L365" s="7"/>
       <c r="M365" s="2" t="s">
         <v>96</v>
       </c>
@@ -23252,9 +23088,7 @@
         <v>478</v>
       </c>
       <c r="K366" s="2"/>
-      <c r="L366" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L366" s="7"/>
       <c r="M366" s="2" t="s">
         <v>96</v>
       </c>
@@ -23560,9 +23394,7 @@
         <v>478</v>
       </c>
       <c r="K372" s="2"/>
-      <c r="L372" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L372" s="7"/>
       <c r="M372" s="2" t="s">
         <v>97</v>
       </c>
@@ -23589,46 +23421,44 @@
       <c r="V372" s="2"/>
     </row>
     <row r="373" spans="1:22">
-      <c r="A373" s="2" t="s">
+      <c r="A373" s="5" t="s">
         <v>1084</v>
       </c>
-      <c r="B373" s="2" t="s">
+      <c r="B373" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C373" s="2" t="s">
+      <c r="C373" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D373" s="2"/>
-      <c r="E373" s="2"/>
-      <c r="F373" s="2"/>
-      <c r="G373" s="2"/>
-      <c r="H373" s="2"/>
-      <c r="I373" s="2"/>
-      <c r="J373" s="2" t="s">
+      <c r="D373" s="5"/>
+      <c r="E373" s="5"/>
+      <c r="F373" s="5"/>
+      <c r="G373" s="5"/>
+      <c r="H373" s="5"/>
+      <c r="I373" s="5"/>
+      <c r="J373" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="K373" s="2" t="s">
+      <c r="K373" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="L373" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="M373" s="2" t="s">
+      <c r="L373" s="7"/>
+      <c r="M373" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="N373" s="2" t="s">
+      <c r="N373" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="O373" s="2"/>
-      <c r="P373" s="2"/>
-      <c r="Q373" s="2"/>
-      <c r="R373" s="2"/>
-      <c r="S373" s="2"/>
-      <c r="T373" s="2"/>
-      <c r="U373" s="2" t="s">
+      <c r="O373" s="5"/>
+      <c r="P373" s="5"/>
+      <c r="Q373" s="5"/>
+      <c r="R373" s="5"/>
+      <c r="S373" s="5"/>
+      <c r="T373" s="5"/>
+      <c r="U373" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="V373" s="2" t="s">
+      <c r="V373" s="5" t="s">
         <v>588</v>
       </c>
     </row>
@@ -23899,44 +23729,42 @@
       </c>
     </row>
     <row r="379" spans="1:22">
-      <c r="A379" s="2" t="s">
+      <c r="A379" s="5" t="s">
         <v>1090</v>
       </c>
-      <c r="B379" s="2" t="s">
+      <c r="B379" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C379" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D379" s="2"/>
-      <c r="E379" s="2"/>
-      <c r="F379" s="2"/>
-      <c r="G379" s="2"/>
-      <c r="H379" s="2"/>
-      <c r="I379" s="2"/>
-      <c r="J379" s="2" t="s">
+      <c r="C379" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D379" s="5"/>
+      <c r="E379" s="5"/>
+      <c r="F379" s="5"/>
+      <c r="G379" s="5"/>
+      <c r="H379" s="5"/>
+      <c r="I379" s="5"/>
+      <c r="J379" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="K379" s="2"/>
-      <c r="L379" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="M379" s="2" t="s">
+      <c r="K379" s="5"/>
+      <c r="L379" s="7"/>
+      <c r="M379" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N379" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O379" s="2"/>
-      <c r="P379" s="2"/>
-      <c r="Q379" s="2"/>
-      <c r="R379" s="2"/>
-      <c r="S379" s="2"/>
-      <c r="T379" s="2"/>
-      <c r="U379" s="2" t="s">
+      <c r="N379" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O379" s="5"/>
+      <c r="P379" s="5"/>
+      <c r="Q379" s="5"/>
+      <c r="R379" s="5"/>
+      <c r="S379" s="5"/>
+      <c r="T379" s="5"/>
+      <c r="U379" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="V379" s="2"/>
+      <c r="V379" s="5"/>
     </row>
     <row r="380" spans="1:22">
       <c r="A380" s="2" t="s">
@@ -24329,46 +24157,44 @@
       <c r="V387" s="9"/>
     </row>
     <row r="388" spans="1:22">
-      <c r="A388" s="2" t="s">
+      <c r="A388" s="5" t="s">
         <v>1099</v>
       </c>
-      <c r="B388" s="2" t="s">
+      <c r="B388" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C388" s="2" t="s">
+      <c r="C388" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D388" s="2"/>
-      <c r="E388" s="2"/>
-      <c r="F388" s="2"/>
-      <c r="G388" s="2"/>
-      <c r="H388" s="2"/>
-      <c r="I388" s="2"/>
-      <c r="J388" s="2" t="s">
+      <c r="D388" s="5"/>
+      <c r="E388" s="5"/>
+      <c r="F388" s="5"/>
+      <c r="G388" s="5"/>
+      <c r="H388" s="5"/>
+      <c r="I388" s="5"/>
+      <c r="J388" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="K388" s="2" t="s">
+      <c r="K388" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="L388" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="M388" s="2" t="s">
+      <c r="L388" s="7"/>
+      <c r="M388" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="N388" s="2" t="s">
+      <c r="N388" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="O388" s="2"/>
-      <c r="P388" s="2"/>
-      <c r="Q388" s="2"/>
-      <c r="R388" s="2"/>
-      <c r="S388" s="2"/>
-      <c r="T388" s="2"/>
-      <c r="U388" s="2" t="s">
+      <c r="O388" s="5"/>
+      <c r="P388" s="5"/>
+      <c r="Q388" s="5"/>
+      <c r="R388" s="5"/>
+      <c r="S388" s="5"/>
+      <c r="T388" s="5"/>
+      <c r="U388" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="V388" s="2" t="s">
+      <c r="V388" s="5" t="s">
         <v>589</v>
       </c>
     </row>
@@ -24801,46 +24627,44 @@
       <c r="V396" s="2"/>
     </row>
     <row r="397" spans="1:22">
-      <c r="A397" s="2" t="s">
+      <c r="A397" s="5" t="s">
         <v>1108</v>
       </c>
-      <c r="B397" s="2" t="s">
+      <c r="B397" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C397" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D397" s="2"/>
-      <c r="E397" s="2"/>
-      <c r="F397" s="2"/>
-      <c r="G397" s="2"/>
-      <c r="H397" s="2"/>
-      <c r="I397" s="2"/>
-      <c r="J397" s="2" t="s">
+      <c r="C397" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D397" s="5"/>
+      <c r="E397" s="5"/>
+      <c r="F397" s="5"/>
+      <c r="G397" s="5"/>
+      <c r="H397" s="5"/>
+      <c r="I397" s="5"/>
+      <c r="J397" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="K397" s="2" t="s">
+      <c r="K397" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="L397" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="M397" s="2" t="s">
+      <c r="L397" s="7"/>
+      <c r="M397" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N397" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O397" s="2"/>
-      <c r="P397" s="2"/>
-      <c r="Q397" s="2"/>
-      <c r="R397" s="2"/>
-      <c r="S397" s="2"/>
-      <c r="T397" s="2"/>
-      <c r="U397" s="2" t="s">
+      <c r="N397" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O397" s="5"/>
+      <c r="P397" s="5"/>
+      <c r="Q397" s="5"/>
+      <c r="R397" s="5"/>
+      <c r="S397" s="5"/>
+      <c r="T397" s="5"/>
+      <c r="U397" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="V397" s="2" t="s">
+      <c r="V397" s="5" t="s">
         <v>551</v>
       </c>
     </row>
@@ -25192,9 +25016,7 @@
         <v>478</v>
       </c>
       <c r="K404" s="2"/>
-      <c r="L404" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L404" s="7"/>
       <c r="M404" s="2" t="s">
         <v>47</v>
       </c>
@@ -25507,46 +25329,44 @@
       <c r="V410" s="2"/>
     </row>
     <row r="411" spans="1:22">
-      <c r="A411" s="2" t="s">
+      <c r="A411" s="5" t="s">
         <v>1122</v>
       </c>
-      <c r="B411" s="2" t="s">
+      <c r="B411" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C411" s="2" t="s">
+      <c r="C411" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D411" s="2"/>
-      <c r="E411" s="2"/>
-      <c r="F411" s="2"/>
-      <c r="G411" s="2"/>
-      <c r="H411" s="2"/>
-      <c r="I411" s="2"/>
-      <c r="J411" s="2" t="s">
+      <c r="D411" s="5"/>
+      <c r="E411" s="5"/>
+      <c r="F411" s="5"/>
+      <c r="G411" s="5"/>
+      <c r="H411" s="5"/>
+      <c r="I411" s="5"/>
+      <c r="J411" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="K411" s="2" t="s">
+      <c r="K411" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="L411" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="M411" s="2" t="s">
+      <c r="L411" s="7"/>
+      <c r="M411" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="N411" s="2" t="s">
+      <c r="N411" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="O411" s="2"/>
-      <c r="P411" s="2"/>
-      <c r="Q411" s="2"/>
-      <c r="R411" s="2"/>
-      <c r="S411" s="2"/>
-      <c r="T411" s="2"/>
-      <c r="U411" s="2" t="s">
+      <c r="O411" s="5"/>
+      <c r="P411" s="5"/>
+      <c r="Q411" s="5"/>
+      <c r="R411" s="5"/>
+      <c r="S411" s="5"/>
+      <c r="T411" s="5"/>
+      <c r="U411" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="V411" s="2" t="s">
+      <c r="V411" s="5" t="s">
         <v>591</v>
       </c>
     </row>
@@ -25794,9 +25614,7 @@
         <v>478</v>
       </c>
       <c r="K416" s="2"/>
-      <c r="L416" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L416" s="7"/>
       <c r="M416" s="2" t="s">
         <v>104</v>
       </c>
@@ -25985,46 +25803,44 @@
       </c>
     </row>
     <row r="420" spans="1:22">
-      <c r="A420" s="2" t="s">
+      <c r="A420" s="5" t="s">
         <v>1131</v>
       </c>
-      <c r="B420" s="2" t="s">
+      <c r="B420" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C420" s="2" t="s">
+      <c r="C420" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D420" s="2"/>
-      <c r="E420" s="2"/>
-      <c r="F420" s="2"/>
-      <c r="G420" s="2"/>
-      <c r="H420" s="2"/>
-      <c r="I420" s="2"/>
-      <c r="J420" s="2" t="s">
+      <c r="D420" s="5"/>
+      <c r="E420" s="5"/>
+      <c r="F420" s="5"/>
+      <c r="G420" s="5"/>
+      <c r="H420" s="5"/>
+      <c r="I420" s="5"/>
+      <c r="J420" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="K420" s="2" t="s">
+      <c r="K420" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="L420" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="M420" s="2" t="s">
+      <c r="L420" s="7"/>
+      <c r="M420" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="N420" s="2" t="s">
+      <c r="N420" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="O420" s="2"/>
-      <c r="P420" s="2"/>
-      <c r="Q420" s="2"/>
-      <c r="R420" s="2"/>
-      <c r="S420" s="2"/>
-      <c r="T420" s="2"/>
-      <c r="U420" s="2" t="s">
+      <c r="O420" s="5"/>
+      <c r="P420" s="5"/>
+      <c r="Q420" s="5"/>
+      <c r="R420" s="5"/>
+      <c r="S420" s="5"/>
+      <c r="T420" s="5"/>
+      <c r="U420" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="V420" s="2" t="s">
+      <c r="V420" s="5" t="s">
         <v>591</v>
       </c>
     </row>
@@ -26272,9 +26088,7 @@
         <v>478</v>
       </c>
       <c r="K425" s="2"/>
-      <c r="L425" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L425" s="7"/>
       <c r="M425" s="2" t="s">
         <v>105</v>
       </c>
@@ -26683,46 +26497,44 @@
       </c>
     </row>
     <row r="433" spans="1:22">
-      <c r="A433" s="2" t="s">
+      <c r="A433" s="5" t="s">
         <v>1144</v>
       </c>
-      <c r="B433" s="2" t="s">
+      <c r="B433" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C433" s="2" t="s">
+      <c r="C433" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D433" s="2"/>
-      <c r="E433" s="2"/>
-      <c r="F433" s="2"/>
-      <c r="G433" s="2"/>
-      <c r="H433" s="2"/>
-      <c r="I433" s="2"/>
-      <c r="J433" s="2" t="s">
+      <c r="D433" s="5"/>
+      <c r="E433" s="5"/>
+      <c r="F433" s="5"/>
+      <c r="G433" s="5"/>
+      <c r="H433" s="5"/>
+      <c r="I433" s="5"/>
+      <c r="J433" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="K433" s="2" t="s">
+      <c r="K433" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="L433" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="M433" s="2" t="s">
+      <c r="L433" s="7"/>
+      <c r="M433" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="N433" s="2" t="s">
+      <c r="N433" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="O433" s="2"/>
-      <c r="P433" s="2"/>
-      <c r="Q433" s="2"/>
-      <c r="R433" s="2"/>
-      <c r="S433" s="2"/>
-      <c r="T433" s="2"/>
-      <c r="U433" s="2" t="s">
+      <c r="O433" s="5"/>
+      <c r="P433" s="5"/>
+      <c r="Q433" s="5"/>
+      <c r="R433" s="5"/>
+      <c r="S433" s="5"/>
+      <c r="T433" s="5"/>
+      <c r="U433" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="V433" s="2" t="s">
+      <c r="V433" s="5" t="s">
         <v>591</v>
       </c>
     </row>
@@ -26970,9 +26782,7 @@
         <v>478</v>
       </c>
       <c r="K438" s="2"/>
-      <c r="L438" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L438" s="7"/>
       <c r="M438" s="2" t="s">
         <v>106</v>
       </c>
@@ -27219,46 +27029,44 @@
       <c r="V442" s="2"/>
     </row>
     <row r="443" spans="1:22">
-      <c r="A443" s="2" t="s">
+      <c r="A443" s="5" t="s">
         <v>1154</v>
       </c>
-      <c r="B443" s="2" t="s">
+      <c r="B443" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C443" s="2" t="s">
+      <c r="C443" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D443" s="2"/>
-      <c r="E443" s="2"/>
-      <c r="F443" s="2"/>
-      <c r="G443" s="2"/>
-      <c r="H443" s="2"/>
-      <c r="I443" s="2"/>
-      <c r="J443" s="2" t="s">
+      <c r="D443" s="5"/>
+      <c r="E443" s="5"/>
+      <c r="F443" s="5"/>
+      <c r="G443" s="5"/>
+      <c r="H443" s="5"/>
+      <c r="I443" s="5"/>
+      <c r="J443" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="K443" s="2" t="s">
+      <c r="K443" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="L443" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="M443" s="2" t="s">
+      <c r="L443" s="7"/>
+      <c r="M443" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="N443" s="2" t="s">
+      <c r="N443" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="O443" s="2"/>
-      <c r="P443" s="2"/>
-      <c r="Q443" s="2"/>
-      <c r="R443" s="2"/>
-      <c r="S443" s="2"/>
-      <c r="T443" s="2"/>
-      <c r="U443" s="2" t="s">
+      <c r="O443" s="5"/>
+      <c r="P443" s="5"/>
+      <c r="Q443" s="5"/>
+      <c r="R443" s="5"/>
+      <c r="S443" s="5"/>
+      <c r="T443" s="5"/>
+      <c r="U443" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="V443" s="2" t="s">
+      <c r="V443" s="5" t="s">
         <v>591</v>
       </c>
     </row>
@@ -27506,9 +27314,7 @@
         <v>478</v>
       </c>
       <c r="K448" s="2"/>
-      <c r="L448" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="L448" s="7"/>
       <c r="M448" s="2" t="s">
         <v>107</v>
       </c>
@@ -27755,46 +27561,44 @@
       <c r="V452" s="2"/>
     </row>
     <row r="453" spans="1:22">
-      <c r="A453" s="2" t="s">
+      <c r="A453" s="5" t="s">
         <v>1164</v>
       </c>
-      <c r="B453" s="2" t="s">
+      <c r="B453" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C453" s="2" t="s">
+      <c r="C453" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D453" s="2"/>
-      <c r="E453" s="2"/>
-      <c r="F453" s="2"/>
-      <c r="G453" s="2"/>
-      <c r="H453" s="2"/>
-      <c r="I453" s="2"/>
-      <c r="J453" s="2" t="s">
+      <c r="D453" s="5"/>
+      <c r="E453" s="5"/>
+      <c r="F453" s="5"/>
+      <c r="G453" s="5"/>
+      <c r="H453" s="5"/>
+      <c r="I453" s="5"/>
+      <c r="J453" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="K453" s="2" t="s">
+      <c r="K453" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="L453" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="M453" s="2" t="s">
+      <c r="L453" s="7"/>
+      <c r="M453" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="N453" s="2" t="s">
+      <c r="N453" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="O453" s="2"/>
-      <c r="P453" s="2"/>
-      <c r="Q453" s="2"/>
-      <c r="R453" s="2"/>
-      <c r="S453" s="2"/>
-      <c r="T453" s="2"/>
-      <c r="U453" s="2" t="s">
+      <c r="O453" s="5"/>
+      <c r="P453" s="5"/>
+      <c r="Q453" s="5"/>
+      <c r="R453" s="5"/>
+      <c r="S453" s="5"/>
+      <c r="T453" s="5"/>
+      <c r="U453" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="V453" s="2" t="s">
+      <c r="V453" s="5" t="s">
         <v>593</v>
       </c>
     </row>
